--- a/stats.xlsx
+++ b/stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A6123615\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E95278E8-F6C2-4F0F-8861-4658246D24BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9715F1-998A-4A5B-A458-D91A51AA3447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B626985B-695D-4489-9D0A-C5BCF8EEB4BC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>player</t>
   </si>
@@ -86,12 +86,6 @@
     <t>Hendo</t>
   </si>
   <si>
-    <t>Steve</t>
-  </si>
-  <si>
-    <t>Jsad</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
@@ -102,6 +96,30 @@
   </si>
   <si>
     <t>R</t>
+  </si>
+  <si>
+    <t>KPR</t>
+  </si>
+  <si>
+    <t>DPR</t>
+  </si>
+  <si>
+    <t>UDR</t>
+  </si>
+  <si>
+    <t>EFR</t>
+  </si>
+  <si>
+    <t>KD</t>
+  </si>
+  <si>
+    <t>HS%</t>
+  </si>
+  <si>
+    <t>Awards</t>
+  </si>
+  <si>
+    <t>Placement</t>
   </si>
 </sst>
 </file>
@@ -154,6 +172,66 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A85CD0F-D2B0-F777-D665-DEFA6E1A30E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11506200" y="4795837"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -473,26 +551,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F2117D9-977B-421F-9718-8B7EFBBDF0C9}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+      <selection activeCell="U31" sqref="U31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="16" max="16" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -504,80 +585,383 @@
         <v>3</v>
       </c>
       <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" t="e">
+        <f>ROUND(IMDIV(B2,H2),2)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="J2" t="e">
+        <f>ROUND(IMDIV(D2,H2),2)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K2" t="e">
+        <f>ROUND(IMDIV(E2,H2),2)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="L2" t="e">
+        <f>ROUND(IMDIV(F2,H2),2)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="M2" t="e">
+        <f>ROUND(IMDIV(B2,D2),2)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="N2" t="e">
+        <f>ROUND(IMDIV(C2,B2),4)*100</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" t="e">
+        <f t="shared" ref="I3:I15" si="0">ROUND(IMDIV(B3,H3),2)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="J3" t="e">
+        <f t="shared" ref="J3:J15" si="1">ROUND(IMDIV(D3,H3),2)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K3" t="e">
+        <f t="shared" ref="K3:K15" si="2">ROUND(IMDIV(E3,H3),2)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="L3" t="e">
+        <f t="shared" ref="L3:L15" si="3">ROUND(IMDIV(F3,H3),2)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="M3" t="e">
+        <f t="shared" ref="M3:M13" si="4">ROUND(IMDIV(B3,D3),2)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="N3" t="e">
+        <f t="shared" ref="N3:N13" si="5">ROUND(IMDIV(C3,B3),4)*100</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J4" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K4" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="L4" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="M4" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="N4" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J5" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K5" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="L5" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="M5" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="N5" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J6" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K6" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="L6" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="M6" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="N6" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J7" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K7" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="L7" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="M7" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="N7" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J8" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K8" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="L8" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="M8" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="N8" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J9" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K9" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="L9" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="M9" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="N9" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J10" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K10" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="L10" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="M10" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="N10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J11" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K11" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="L11" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="M11" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="N11" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J12" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K12" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="L12" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="M12" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="N12" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>17</v>
+      <c r="I13" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J13" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K13" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="L13" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="M13" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="N13" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>